--- a/data/trans_bre/P16A_n_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R3-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.803696437732234</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.250766031009243</v>
+        <v>4.250766031009241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1103027895572048</v>
@@ -649,7 +649,7 @@
         <v>1.278206356217099</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7084671862248954</v>
+        <v>0.708467186224895</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9652804261981964</v>
+        <v>-1.093175948499352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.641766351195608</v>
+        <v>1.685877904445234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7220482961292684</v>
+        <v>0.8476193793528822</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.916181770275132</v>
+        <v>2.059232255776663</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.747930110605726</v>
+        <v>-0.756670327891057</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7591551227935557</v>
+        <v>0.7089815525681969</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2300919218944992</v>
+        <v>0.2414038539930743</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.25906652296735</v>
+        <v>0.2701039668784005</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7628353243487326</v>
+        <v>0.9152940754891755</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.093065352438567</v>
+        <v>5.151062388490243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.707981434087333</v>
+        <v>4.917726724889975</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.222159605063899</v>
+        <v>6.564816261064194</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.81694600929671</v>
+        <v>2.10590863543147</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6.93004943235371</v>
+        <v>6.835116153084003</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.105279879429029</v>
+        <v>3.395438497755011</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.29650680708792</v>
+        <v>1.359980194995838</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6151393074523422</v>
+        <v>-0.505395372297923</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.47752509784232</v>
+        <v>2.420925261710169</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5180122562952756</v>
+        <v>0.4980557432673214</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.179924691126498</v>
+        <v>3.23446821745971</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3271824393864985</v>
+        <v>-0.305211474672678</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.10557331529447</v>
+        <v>1.08354965231036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1575994110626351</v>
+        <v>0.1933803320962845</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6086753435668326</v>
+        <v>0.6091657611439836</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.013686333107025</v>
+        <v>2.043148970655152</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.663653980609646</v>
+        <v>5.650853098648375</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.308787794197558</v>
+        <v>3.46880218241105</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.665150667764079</v>
+        <v>6.677668687516555</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.04592372517089</v>
+        <v>2.18021157509527</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>7.519778971326187</v>
+        <v>7.464949167319086</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.861079244009246</v>
+        <v>3.081221988365016</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.910236650727366</v>
+        <v>1.963542064577354</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.096019526534799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.379255620566924</v>
+        <v>3.379255620566926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.017505787978447</v>
@@ -849,7 +849,7 @@
         <v>1.119550103685417</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9060487103750015</v>
+        <v>0.9060487103750018</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.230130397481486</v>
+        <v>1.102573165627188</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7170108665629459</v>
+        <v>-0.6818568902130512</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4656866776666705</v>
+        <v>0.3596632245193852</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.474885978270544</v>
+        <v>1.274309048363078</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5269435026084188</v>
+        <v>0.4328790582739444</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2500260012364298</v>
+        <v>-0.2118940519822838</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08252564728326296</v>
+        <v>0.05804471374164561</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3007275760692876</v>
+        <v>0.2452077970196061</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.542874332827833</v>
+        <v>4.749808425312324</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.126215181432253</v>
+        <v>3.136472031497614</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.096535476671708</v>
+        <v>3.93417320707486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.38963658039935</v>
+        <v>5.313387062043608</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.839989751323003</v>
+        <v>6.149975334865239</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.134306026559956</v>
+        <v>2.491573849965064</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.50215460478986</v>
+        <v>3.039749046231501</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.97172733152959</v>
+        <v>1.823727249149667</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3439796489463218</v>
+        <v>-0.08535445117883843</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.75181987021195</v>
+        <v>1.875777032166953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.366810791990464</v>
+        <v>2.324507750523175</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.127537233824103</v>
+        <v>3.616278082382376</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1624515165587752</v>
+        <v>-0.06786729220030266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.50500114413931</v>
+        <v>0.5068543682549214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.243283742013682</v>
+        <v>1.153515186045934</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6652769713597299</v>
+        <v>0.5629952861030701</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.420938171808909</v>
+        <v>2.518875462172383</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.418190002018527</v>
+        <v>5.666944206948321</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.58779384960854</v>
+        <v>5.523782307275199</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.919312552916422</v>
+        <v>8.006724507118021</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.727812437505368</v>
+        <v>1.839400509942971</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.479651821341295</v>
+        <v>3.462229537877846</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.709583854544032</v>
+        <v>7.211038263880197</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.869454704569556</v>
+        <v>1.800529655536645</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.664944335383276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.803970876754051</v>
+        <v>4.803970876754052</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7413116424889485</v>
@@ -1049,7 +1049,7 @@
         <v>1.607764179158136</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.013726382682455</v>
+        <v>1.013726382682456</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4370385055287844</v>
+        <v>0.4331567837319616</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.234066295793484</v>
+        <v>2.28876420943865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.813085961400754</v>
+        <v>1.898942447871949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.781352128451561</v>
+        <v>3.824989372939509</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2314395544178215</v>
+        <v>0.2392423191059002</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9498400735249108</v>
+        <v>1.037864303163798</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8648178125621229</v>
+        <v>0.9509915547568483</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.717284186816079</v>
+        <v>0.7445915977346736</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.856095240222057</v>
+        <v>1.791963914232418</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.098865014436468</v>
+        <v>4.145283943500021</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.520249547172828</v>
+        <v>3.558512711702903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.713471148169239</v>
+        <v>5.788112867287217</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.57881662039282</v>
+        <v>1.563372820555463</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.825000434649349</v>
+        <v>2.962711202679387</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.547173991484649</v>
+        <v>2.705564374861009</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.337324330260659</v>
+        <v>1.381975486532008</v>
       </c>
     </row>
     <row r="19">
